--- a/Datos/Database by set/Set with text box/Xlsx sets/Unsanctioned Tokens (TUND).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Unsanctioned Tokens (TUND).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,133 +444,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Acorn Stash</t>
+          <t>('Acorn Stash', ['Card', '(Place your acorn counters in this area.)'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>('Beeble', ['Token Creature — Beeble', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>(Place your acorn counters in this area.)</t>
+          <t>('Dragon', ['Token Creature — Dragon', 'Flying', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Beeble</t>
+          <t>('Giant Teddy Bear', ['Token Creature — Giant Teddy Bear', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Token Creature — Beeble</t>
+          <t>('Goblin', ['Token Creature — Goblin', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Token Creature — Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Giant Teddy Bear</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Token Creature — Giant Teddy Bear</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>5/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Goblin</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Token Creature — Goblin</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Squirrel</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Token Creature — Squirrel</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>1/1</t>
+          <t>('Squirrel', ['Token Creature — Squirrel', '1/1'])</t>
         </is>
       </c>
     </row>
